--- a/machine learning files/Top 6 Number of Records.xlsx
+++ b/machine learning files/Top 6 Number of Records.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dianeshomefolder/Documents/git/meteorite-classification/machine learning files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A86F79-8DB7-5644-8FEA-A3E08FCA354F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{104379E7-1B3C-784F-A4D0-92012B691D9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="900" windowWidth="27640" windowHeight="15720" xr2:uid="{6D8FC87F-C24B-F84D-9551-2AF33C09E5B9}"/>
   </bookViews>
